--- a/analise_curva_ABC/analise_curva_ABC/analises_prontas/ordem/cod_mais_desc_xpe.xlsx
+++ b/analise_curva_ABC/analise_curva_ABC/analises_prontas/ordem/cod_mais_desc_xpe.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estoque\Documents\estoque.renan\automação\analise_curva_ABC\analise_curva_ABC\analises_prontas\ordem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3914F694-FBF4-440E-8842-72379C9C9422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -166,8 +160,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,69 +209,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,7 +268,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -349,7 +302,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -384,10 +336,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -560,20 +511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="19.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -596,744 +541,835 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11">
         <v>101190</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11">
         <v>101066</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11">
         <v>102322</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11">
         <v>231262</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11">
         <v>10583</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11">
         <v>231012</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12">
         <v>10579</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12">
         <v>10220</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12">
         <v>231048</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12">
         <v>102379</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12">
         <v>10160</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12">
         <v>10198</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13">
         <v>10066</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13">
         <v>101318</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13">
         <v>231933</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13">
         <v>101185</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13">
         <v>232484</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13">
         <v>10191</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14">
         <v>10131</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14">
         <v>101072</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14">
         <v>101015</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14">
         <v>10190</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14">
         <v>231225</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14">
         <v>101016</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15">
         <v>14265</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15">
         <v>102245</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15">
         <v>101163</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15">
         <v>10168</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15">
         <v>102383</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15">
         <v>14265</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16">
         <v>231936</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16">
         <v>12511</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16">
         <v>12515</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16">
         <v>10067</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16">
         <v>101364</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16">
         <v>11118</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17">
         <v>14344</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17">
         <v>102467</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17">
         <v>12523</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17">
         <v>14571</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17">
         <v>102246</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17">
         <v>12752</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18">
         <v>10745</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18">
         <v>14340</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18">
         <v>110287</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E18">
         <v>48</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F18">
         <v>10169</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G18">
         <v>10197</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>49</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <v>52</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B20">
         <v>1</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E20">
         <v>6</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F20">
         <v>4</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G20">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C21">
         <v>9</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D21">
         <v>11</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E21">
         <v>12</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F21">
         <v>10</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G21">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>3</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B22">
         <v>13</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C22">
         <v>15</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D22">
         <v>17</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22">
         <v>18</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F22">
         <v>16</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G22">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>4</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B23">
         <v>19</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C23">
         <v>21</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D23">
         <v>23</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E23">
         <v>24</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F23">
         <v>22</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G23">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>5</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B24">
         <v>25</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C24">
         <v>27</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D24">
         <v>29</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E24">
         <v>30</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F24">
         <v>28</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G24">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>6</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25">
         <v>31</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C25">
         <v>33</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D25">
         <v>35</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E25">
         <v>36</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F25">
         <v>34</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G25">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>7</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26">
         <v>37</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C26">
         <v>39</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D26">
         <v>41</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26">
         <v>42</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F26">
         <v>40</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G26">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>8</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B27">
         <v>43</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27">
         <v>45</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D27">
         <v>47</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E27">
         <v>48</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F27">
         <v>46</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G27">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <v>52</v>
+      </c>
+      <c r="G28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B29">
         <v>210821</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C29">
         <v>74443</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D29">
         <v>52953</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E29">
         <v>39998</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F29">
         <v>65478</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G29">
         <v>202491</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B30">
         <v>39224</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C30">
         <v>30624</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D30">
         <v>23483</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E30">
         <v>21529</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F30">
         <v>25839</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G30">
         <v>31656</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>3</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B31">
         <v>15778</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C31">
         <v>13781</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D31">
         <v>11543</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E31">
         <v>10788</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F31">
         <v>12627</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G31">
         <v>14011</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>4</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B32">
         <v>10033</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C32">
         <v>8195</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D32">
         <v>7294</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E32">
         <v>6867</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F32">
         <v>8119</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G32">
         <v>9544</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>5</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B33">
         <v>6706</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C33">
         <v>5399</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D33">
         <v>4413</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E33">
         <v>3836</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F33">
         <v>5278</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G33">
         <v>6706</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>6</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B34">
         <v>3575</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C34">
         <v>2983</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D34">
         <v>2505</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E34">
         <v>2466</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F34">
         <v>2743</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G34">
         <v>3475</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>7</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B35">
         <v>2312</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C35">
         <v>1891</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D35">
         <v>1624</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E35">
         <v>1594</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F35">
         <v>1851</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G35">
         <v>1914</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>8</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B36">
         <v>1568</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C36">
         <v>1168</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D36">
         <v>1034</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E36">
         <v>48</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F36">
         <v>1141</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G36">
         <v>1355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>53</v>
+      </c>
+      <c r="E37">
+        <v>54</v>
+      </c>
+      <c r="F37">
+        <v>52</v>
+      </c>
+      <c r="G37">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>